--- a/www/IndicatorsPerCountry/CzechRepublic_GDPperCapita_TerritorialRef_1993_2012_CCode_203.xlsx
+++ b/www/IndicatorsPerCountry/CzechRepublic_GDPperCapita_TerritorialRef_1993_2012_CCode_203.xlsx
@@ -126,13 +126,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/CzechRepublic_GDPperCapita_TerritorialRef_1993_2012_CCode_203.xlsx
+++ b/www/IndicatorsPerCountry/CzechRepublic_GDPperCapita_TerritorialRef_1993_2012_CCode_203.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,67 +36,145 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>8895.28212301</t>
-  </si>
-  <si>
-    <t>7865.41887753</t>
-  </si>
-  <si>
-    <t>7817.58193821</t>
-  </si>
-  <si>
-    <t>7814.29303254</t>
-  </si>
-  <si>
-    <t>7984.83858446</t>
-  </si>
-  <si>
-    <t>8464.13976208</t>
-  </si>
-  <si>
-    <t>8858.69031849</t>
-  </si>
-  <si>
-    <t>8792.6405073</t>
-  </si>
-  <si>
-    <t>8780.21173944</t>
-  </si>
-  <si>
-    <t>8936.78383415</t>
-  </si>
-  <si>
-    <t>9320.19361001</t>
-  </si>
-  <si>
-    <t>9616.19459946</t>
-  </si>
-  <si>
-    <t>9828.63118279</t>
-  </si>
-  <si>
-    <t>10203.9783086</t>
-  </si>
-  <si>
-    <t>10693.0329157</t>
-  </si>
-  <si>
-    <t>11420.6924229</t>
-  </si>
-  <si>
-    <t>12229.2510547</t>
-  </si>
-  <si>
-    <t>12939.1098024</t>
-  </si>
-  <si>
-    <t>13350.312252</t>
-  </si>
-  <si>
-    <t>12734.7134226</t>
-  </si>
-  <si>
-    <t>13096.5857685</t>
+    <t>8748</t>
+  </si>
+  <si>
+    <t>9177</t>
+  </si>
+  <si>
+    <t>9626</t>
+  </si>
+  <si>
+    <t>10026</t>
+  </si>
+  <si>
+    <t>10444</t>
+  </si>
+  <si>
+    <t>10954</t>
+  </si>
+  <si>
+    <t>11317</t>
+  </si>
+  <si>
+    <t>11634</t>
+  </si>
+  <si>
+    <t>12055</t>
+  </si>
+  <si>
+    <t>12164</t>
+  </si>
+  <si>
+    <t>12336</t>
+  </si>
+  <si>
+    <t>12306</t>
+  </si>
+  <si>
+    <t>12109</t>
+  </si>
+  <si>
+    <t>12301</t>
+  </si>
+  <si>
+    <t>12573</t>
+  </si>
+  <si>
+    <t>12855</t>
+  </si>
+  <si>
+    <t>13211</t>
+  </si>
+  <si>
+    <t>13514</t>
+  </si>
+  <si>
+    <t>13791</t>
+  </si>
+  <si>
+    <t>14027</t>
+  </si>
+  <si>
+    <t>14178</t>
+  </si>
+  <si>
+    <t>12724.5408544989</t>
+  </si>
+  <si>
+    <t>12810.431670605</t>
+  </si>
+  <si>
+    <t>12974.1972684743</t>
+  </si>
+  <si>
+    <t>13517.5819052532</t>
+  </si>
+  <si>
+    <t>14550.104626677</t>
+  </si>
+  <si>
+    <t>15386.3206677175</t>
+  </si>
+  <si>
+    <t>15494.3169476977</t>
+  </si>
+  <si>
+    <t>15657.425612747</t>
+  </si>
+  <si>
+    <t>16102.5076382534</t>
+  </si>
+  <si>
+    <t>17056.1595018642</t>
+  </si>
+  <si>
+    <t>17868.567585214</t>
+  </si>
+  <si>
+    <t>18431.0271659203</t>
+  </si>
+  <si>
+    <t>19344.0901639673</t>
+  </si>
+  <si>
+    <t>20555.0355651635</t>
+  </si>
+  <si>
+    <t>22128.5801149977</t>
+  </si>
+  <si>
+    <t>23888.1639654084</t>
+  </si>
+  <si>
+    <t>25382.8075313842</t>
+  </si>
+  <si>
+    <t>26186.0453787816</t>
+  </si>
+  <si>
+    <t>25093.8628770043</t>
+  </si>
+  <si>
+    <t>25922.3940505696</t>
+  </si>
+  <si>
+    <t>26725</t>
+  </si>
+  <si>
+    <t>26474</t>
+  </si>
+  <si>
+    <t>26338</t>
+  </si>
+  <si>
+    <t>27024</t>
+  </si>
+  <si>
+    <t>28194</t>
+  </si>
+  <si>
+    <t>28823</t>
   </si>
   <si>
     <t>Description</t>
@@ -211,7 +289,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1990.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -228,7 +306,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1991.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -245,7 +323,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1992.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -262,7 +340,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1993.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -279,7 +357,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1994.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -296,7 +374,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1995.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -313,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1996.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -330,7 +408,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1997.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -347,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1998.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -364,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1999.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -381,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>2000.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -398,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>2001.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -415,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>2002.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -432,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>2003.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -449,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>2004.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -466,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>2005.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -483,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>2006.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -500,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>2007.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -517,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>2008.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -534,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>2009.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -551,10 +629,452 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2010.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -572,50 +1092,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
